--- a/pred_ohlcv/54_21/2019-10-18 ORBS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-18 ORBS ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>-155115.5725634146</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-162575.5725634146</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-188677.5561634146</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-188677.5561634146</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-257371.9548634146</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-257371.9548634146</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-257371.9548634146</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-469038.3843435799</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-467658.8717435799</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-508170.4288435799</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>231586.3780564201</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>231586.3780564201</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>231586.3780564201</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>231586.3780564201</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>231586.3780564201</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>231586.3780564201</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>231586.3780564201</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>231586.3780564201</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>185591.2247564201</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>185833.1601564201</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>185813.1601564201</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>185813.1601564201</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>185814.1601564201</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>185814.1601564201</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>191961.78305642</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>100837.69995642</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>100837.69995642</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>100827.69995642</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>164718.85695642</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>164708.85695642</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>167492.49565642</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>167610.49565642</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>167610.49565642</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>167610.49565642</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>167600.49565642</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>167611.49565642</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>138171.0038564201</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>138161.0038564201</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>138172.0038564201</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>142061.28425642</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>142061.28425642</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>150125.80025642</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>150125.80025642</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>148235.47775642</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>148235.47775642</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>1437517.471060485</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>1429187.471060485</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>1429187.471060485</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>1429187.471060485</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>1429177.471060485</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>1429225.804360485</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>1429225.804360485</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>1429215.804360485</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>1429215.804360485</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>1429215.804360485</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>1429215.804360485</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>1429215.804360485</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>1429215.804360485</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>1429205.804360485</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>1433375.804360485</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>1433375.804360485</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>1433365.804360485</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>1437535.804360485</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>1437535.804360485</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>1437535.804360485</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>1441685.804360485</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-18 ORBS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-18 ORBS ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>-155115.5725634146</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-162575.5725634146</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-188677.5561634146</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-188677.5561634146</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-257371.9548634146</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-257371.9548634146</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-257371.9548634146</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-467658.8717435799</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-508170.4288435799</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-508180.4288435799</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-447054.8605435799</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-445499.4824435799</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-438928.6759435799</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-438938.6759435799</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-390791.8363435799</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-394159.4127435799</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-387061.0377435799</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-179579.00854358</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>231586.3780564201</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>231586.3780564201</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>231586.3780564201</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>231586.3780564201</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>231586.3780564201</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>231586.3780564201</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>231586.3780564201</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>231586.3780564201</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>185591.2247564201</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>185833.1601564201</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>185813.1601564201</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>185813.1601564201</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>185814.1601564201</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>185814.1601564201</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>191961.78305642</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>100837.69995642</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>100837.69995642</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>100827.69995642</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>164718.85695642</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>164708.85695642</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>167492.49565642</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>167610.49565642</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>167610.49565642</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>167610.49565642</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>167600.49565642</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>167611.49565642</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>138171.0038564201</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>138161.0038564201</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>138172.0038564201</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>142061.28425642</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>142061.28425642</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>150125.80025642</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>150125.80025642</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>148235.47775642</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>148235.47775642</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>1428524.926660485</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>1428524.926660485</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>1428524.926660485</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>1428514.926660485</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>1429187.471060485</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>1429187.471060485</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>1429187.471060485</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>1429177.471060485</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>1429225.804360485</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>1429225.804360485</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>1429215.804360485</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>1429215.804360485</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>1429215.804360485</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>1429215.804360485</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>1429215.804360485</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>1429215.804360485</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>1429205.804360485</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>1433375.804360485</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>1433365.804360485</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>1437535.804360485</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>1437535.804360485</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>1437535.804360485</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>1437535.804360485</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
